--- a/data/hotels_by_city/Houston/Houston_shard_597.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_597.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d8279155-Reviews-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Springhill-Suites-Houston-Westchase.h11601902.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,815 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r568350591-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8279155</t>
+  </si>
+  <si>
+    <t>568350591</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Overall nice stay</t>
+  </si>
+  <si>
+    <t>Staying here on the last night of our vacation before flying home. The bright side:Easy, efficient check in. Room was very nice and modern. No tub, but kids are old enough for a shower now. Pillow and bed awesome! Smart tv(able to use apps) was nice. Stayed in too many hotels where these features are disengaged. Pool was nice and warm. Wish all indoor pools were this warm! The not so bright side:Bar in lobby was closed. A sign in the elevator mentioning the bar closure “this week”, but the sign looked much older than a few days. One elevator was also not working. Staff at night not all that responsive to calls. No pool towels, called desk from pool, someone brought us bath mats and mentioned that was all they could find. Use the pool the next morning too, and again had to ask for towels. Breakfast area was not that clean and food options were just ok.  Verdict: Overall nice hotel that appear to be a recent Reno. Clean, pretty good location. Might stay again if the bar and pool were better attended to.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Trilby F, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Staying here on the last night of our vacation before flying home. The bright side:Easy, efficient check in. Room was very nice and modern. No tub, but kids are old enough for a shower now. Pillow and bed awesome! Smart tv(able to use apps) was nice. Stayed in too many hotels where these features are disengaged. Pool was nice and warm. Wish all indoor pools were this warm! The not so bright side:Bar in lobby was closed. A sign in the elevator mentioning the bar closure “this week”, but the sign looked much older than a few days. One elevator was also not working. Staff at night not all that responsive to calls. No pool towels, called desk from pool, someone brought us bath mats and mentioned that was all they could find. Use the pool the next morning too, and again had to ask for towels. Breakfast area was not that clean and food options were just ok.  Verdict: Overall nice hotel that appear to be a recent Reno. Clean, pretty good location. Might stay again if the bar and pool were better attended to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r567553310-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567553310</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>Was excited to reserve this place since we like trying out newer hotels. It was convenient in a way since we were stopping by Chinatown area and it was literally right near it. Its located very convenient off Sam Houston Tollway and Westheimer. There's a nice Starbucks and Jimmy John's by it. You can miss it if you aren't looking for it.Check in was smooth. Cordial and ok.  No complaints. Room in itself was standard and a bit small but it will do for just 1 night. Some things that stood out was that their pillow was tall and not too comfy. There's not a cold setting for the shower either which is ok better than no hot lol. But just odd because it was rather hot or warm hot. Closets are huge. A.C. was stable at 1st but then it got cold. There were stains on the towel like blood stains that didn't wash off. That's not that great to me especially for a Marriott establishment. Thats a pet peeve of mine. Cleanliness :/ The breakfast was good though as usual.All in all it wasn't a bad place for a night. Got a great deal with our rewards but will we stay here again? Not sure unless we are around this area. But it was a good 1st night of our road trip stop. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Was excited to reserve this place since we like trying out newer hotels. It was convenient in a way since we were stopping by Chinatown area and it was literally right near it. Its located very convenient off Sam Houston Tollway and Westheimer. There's a nice Starbucks and Jimmy John's by it. You can miss it if you aren't looking for it.Check in was smooth. Cordial and ok.  No complaints. Room in itself was standard and a bit small but it will do for just 1 night. Some things that stood out was that their pillow was tall and not too comfy. There's not a cold setting for the shower either which is ok better than no hot lol. But just odd because it was rather hot or warm hot. Closets are huge. A.C. was stable at 1st but then it got cold. There were stains on the towel like blood stains that didn't wash off. That's not that great to me especially for a Marriott establishment. Thats a pet peeve of mine. Cleanliness :/ The breakfast was good though as usual.All in all it wasn't a bad place for a night. Got a great deal with our rewards but will we stay here again? Not sure unless we are around this area. But it was a good 1st night of our road trip stop. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r567359195-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567359195</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>family time</t>
+  </si>
+  <si>
+    <t>What a great place to lay your head.The hotel is located in the business district.Easy to get around.Right next to Chinatown. The staff was very friendly and helpful,The rooms were large and clean. SItting area, fridge, microwave and writing desk. Two queen beds and a pull out.Can easily sleep 6. They let us check in early which was a blessing due to had to get ready for a wedding. Bring your swinwear because the pool is nice. There is a small work-out room. The a/c was great. Very very cold. how wonderfulThe beds were very comfortable.The pillow were nice, soft and a pleasure. The shower was hot and plenty of roomGive it a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a great place to lay your head.The hotel is located in the business district.Easy to get around.Right next to Chinatown. The staff was very friendly and helpful,The rooms were large and clean. SItting area, fridge, microwave and writing desk. Two queen beds and a pull out.Can easily sleep 6. They let us check in early which was a blessing due to had to get ready for a wedding. Bring your swinwear because the pool is nice. There is a small work-out room. The a/c was great. Very very cold. how wonderfulThe beds were very comfortable.The pillow were nice, soft and a pleasure. The shower was hot and plenty of roomGive it a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r555977069-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555977069</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Very Nice - Extremely Clean, Secure and Staff Very Friendly. Would stay here again if traveling for work.</t>
+  </si>
+  <si>
+    <t>The Suites are very spacious, clean and comfortable.  Free Breakfast was a plus before heading out to work. This hotel was very close to work so traffic was not a problem. Staff was extremely friendly and helpful. I highly recommend the Suites Houston Westchase. MoreShow less</t>
+  </si>
+  <si>
+    <t>The Suites are very spacious, clean and comfortable.  Free Breakfast was a plus before heading out to work. This hotel was very close to work so traffic was not a problem. Staff was extremely friendly and helpful. I highly recommend the Suites Houston Westchase. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r537485798-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537485798</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Quick Overnight, Great Night Sleep!</t>
+  </si>
+  <si>
+    <t>This is a very clean, easy to find, comfortable hotel.  Nothing fancy - what you expect from a Springhill Suites - but spacious rooms which are clean, comfortable and very quiet.  My room was extremely quiet, with plenty of room to work and plenty of room in the lobby to hang out and chat.  The hotel is quite close to everything in the Westchase area and, actually, is much preferred over the Marriott (by me at least) which was my normal haunt in the area.  I will continue to stay here if for no other reason than the polite front desk staff, the relaxed atmosphere and the clean, comfortable, quiet rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is a very clean, easy to find, comfortable hotel.  Nothing fancy - what you expect from a Springhill Suites - but spacious rooms which are clean, comfortable and very quiet.  My room was extremely quiet, with plenty of room to work and plenty of room in the lobby to hang out and chat.  The hotel is quite close to everything in the Westchase area and, actually, is much preferred over the Marriott (by me at least) which was my normal haunt in the area.  I will continue to stay here if for no other reason than the polite front desk staff, the relaxed atmosphere and the clean, comfortable, quiet rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r530363784-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530363784</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Clean and Spacious</t>
+  </si>
+  <si>
+    <t>Big suites, bigger than avg. Clean rooms, clean grounds. Decent lil bar and nice modern breakfast area. Free n easy parking. Good location right off highway and 10 min from energy corridor area.  Rooms r very modern with all great amenities. Only thing i disliked was no newspapers available, i like to read it during my breakfast.  But i would recommend this place, overall its pretty good.  Friendly staff tooMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Big suites, bigger than avg. Clean rooms, clean grounds. Decent lil bar and nice modern breakfast area. Free n easy parking. Good location right off highway and 10 min from energy corridor area.  Rooms r very modern with all great amenities. Only thing i disliked was no newspapers available, i like to read it during my breakfast.  But i would recommend this place, overall its pretty good.  Friendly staff tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r509818229-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509818229</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Visit this hotel and this area with Caution!!</t>
+  </si>
+  <si>
+    <t>Beware!!! While a guest of this hotel this past weekend, my vehicle along with a few others, was broken into. The manager offered no help nor did Marriott's corporate office. Marriott has just lost a longtime loyal customer.  According to one person we spoke with at the hotel, break-ins happen often.  You would think there would be increased security if it's a recurring thing.  Nope, not the case.  Make sure you have good car insurance because Marriott will do nothing to help!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Beware!!! While a guest of this hotel this past weekend, my vehicle along with a few others, was broken into. The manager offered no help nor did Marriott's corporate office. Marriott has just lost a longtime loyal customer.  According to one person we spoke with at the hotel, break-ins happen often.  You would think there would be increased security if it's a recurring thing.  Nope, not the case.  Make sure you have good car insurance because Marriott will do nothing to help!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r504308445-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504308445</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>New hotel, great location in Houston with a friendly staff that is very helpful providing directions of places around town. The breakfast was great--plenty of items to choose from, both hot and cold. The pool and hot tub were relaxing and just the right temperature for both! The room was spacious and extra-clean...you will like all the amenities--can't go wrong with the SpringHill Suites Houston Westchase!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>New hotel, great location in Houston with a friendly staff that is very helpful providing directions of places around town. The breakfast was great--plenty of items to choose from, both hot and cold. The pool and hot tub were relaxing and just the right temperature for both! The room was spacious and extra-clean...you will like all the amenities--can't go wrong with the SpringHill Suites Houston Westchase!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r490010547-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490010547</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I visited the Houston Westchase SpringHill Suites while visiting Houston on business. The hotel is located just off the HWY 8 beltway on the west side.  I was impressed by the friendly front desk personnel as well as the immaculate condition of my room and the breakfast area.  The Breakfast was very good and included hot options such as scrambled eggs and pork sausage.  I opted for the oatmeal and that included many options for toppings - two kinds of nuts, chocolate bits, raisin, craisins and brown sugar.  The coffee was tasty and there was ample fresh fruit and cubed pineapple and melons available. Pricing was fair for the room quality.  I was impressed with the mattresses and had a good night's sleep- not a given when I travel. I was very impressed and will use this hotel again if my travels take me back there. The free wifi did get a little overloaded in the morning, but was mostly adequate and for a small upcharge, high speed internet was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>I visited the Houston Westchase SpringHill Suites while visiting Houston on business. The hotel is located just off the HWY 8 beltway on the west side.  I was impressed by the friendly front desk personnel as well as the immaculate condition of my room and the breakfast area.  The Breakfast was very good and included hot options such as scrambled eggs and pork sausage.  I opted for the oatmeal and that included many options for toppings - two kinds of nuts, chocolate bits, raisin, craisins and brown sugar.  The coffee was tasty and there was ample fresh fruit and cubed pineapple and melons available. Pricing was fair for the room quality.  I was impressed with the mattresses and had a good night's sleep- not a given when I travel. I was very impressed and will use this hotel again if my travels take me back there. The free wifi did get a little overloaded in the morning, but was mostly adequate and for a small upcharge, high speed internet was available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r473610212-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473610212</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Greatest hotel experience ever!</t>
+  </si>
+  <si>
+    <t>The facilities were superb and the staff went above and beyond to accomodate my large group. I cannot thank the staff enough: the management for checking our large group in early, to the front desk graciously guiding us in all things Houston, to the cleaning staff who kindly helped us clean around 14 young teenagers.  Everyone was so kind and truly helpful; we could not have had a better hotel experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>The facilities were superb and the staff went above and beyond to accomodate my large group. I cannot thank the staff enough: the management for checking our large group in early, to the front desk graciously guiding us in all things Houston, to the cleaning staff who kindly helped us clean around 14 young teenagers.  Everyone was so kind and truly helpful; we could not have had a better hotel experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r463874774-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463874774</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Fantasic meeting rooms!</t>
+  </si>
+  <si>
+    <t>We booked one of the meeting rooms for a business event and were pleased with the facility and the service! If you need to hold a meeting in the area, I'd highly recommend! Bonus is the bar on site for unwinding after the meeting. Convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>We booked one of the meeting rooms for a business event and were pleased with the facility and the service! If you need to hold a meeting in the area, I'd highly recommend! Bonus is the bar on site for unwinding after the meeting. Convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r459300348-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459300348</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Not as good as the first time we stayed</t>
+  </si>
+  <si>
+    <t>We have stayed here twice. The first time we stayed was better.  While the breakfast and the coffee are really nice--and the front desk staff is super friendly...the housekeeping is less than it was before.  We didn't have towels replaced on day 2; and the bed sheets were not changed in the 3 days we stayed.  Not crazy about that idea.  Looks like the bathroom was barely touched for cleaning on the 3 days we stayed.  Just the minimum was done.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here twice. The first time we stayed was better.  While the breakfast and the coffee are really nice--and the front desk staff is super friendly...the housekeeping is less than it was before.  We didn't have towels replaced on day 2; and the bed sheets were not changed in the 3 days we stayed.  Not crazy about that idea.  Looks like the bathroom was barely touched for cleaning on the 3 days we stayed.  Just the minimum was done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r449653578-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449653578</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Xmas trip 2016</t>
+  </si>
+  <si>
+    <t>After long drive from Dallas Love field, we stayed 1 night in this hotel, we chose this because in close to Chinatown with a lot of Chinese, Vietnamese restaurant.The location is very convenient, next to Sam Houston tollway.We found the room is very modern, clean and comfortable.Breakfast was very good and a big plus with sausage, scramble egg, etc....Front desk very helpful and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>After long drive from Dallas Love field, we stayed 1 night in this hotel, we chose this because in close to Chinatown with a lot of Chinese, Vietnamese restaurant.The location is very convenient, next to Sam Houston tollway.We found the room is very modern, clean and comfortable.Breakfast was very good and a big plus with sausage, scramble egg, etc....Front desk very helpful and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r445612168-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445612168</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>The BEST hotel in the Houston Area!</t>
+  </si>
+  <si>
+    <t>What more can I say and boast about this amazing Hotel?Location? CHECK. This is centrally located off Beltway 8, near the Westpark toll. But if you know Houston and even if you don't, the side streets are perfect, close to Westheimer, Richmond and even the new City Center. The place is so conveniently situated its easy, non-hassle and fast to get everywhere. PLUS, a Starbucks right next door! Sign me up!Comfort? DOUBLE CHECK! This is a newer Springhill Suites and it absolutely delivers! The rooms are well cleaned and everything seems fresh. But the  BEST part, BEDS! The beds here are THE BEST I have ever slept on in all my travels, heck, it's better than the one at home!Customer Service? TRIPLE CHECK!!! The whole staff, from the happy housekeepers, the friendly breakfast attendant to the awesome front desk staff! Everyone is friendly, happy and helpful! This group TRULY knows customer service, big shout out to Matt O, he was working their Front Desk at my check-in and he went OVER THE TOP and ABOVE AND BEYOND to keep us happy, smiling and satisfied with the process.If your going to Houston, book and stay here. I promise you won't regret it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded December 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2016</t>
+  </si>
+  <si>
+    <t>What more can I say and boast about this amazing Hotel?Location? CHECK. This is centrally located off Beltway 8, near the Westpark toll. But if you know Houston and even if you don't, the side streets are perfect, close to Westheimer, Richmond and even the new City Center. The place is so conveniently situated its easy, non-hassle and fast to get everywhere. PLUS, a Starbucks right next door! Sign me up!Comfort? DOUBLE CHECK! This is a newer Springhill Suites and it absolutely delivers! The rooms are well cleaned and everything seems fresh. But the  BEST part, BEDS! The beds here are THE BEST I have ever slept on in all my travels, heck, it's better than the one at home!Customer Service? TRIPLE CHECK!!! The whole staff, from the happy housekeepers, the friendly breakfast attendant to the awesome front desk staff! Everyone is friendly, happy and helpful! This group TRULY knows customer service, big shout out to Matt O, he was working their Front Desk at my check-in and he went OVER THE TOP and ABOVE AND BEYOND to keep us happy, smiling and satisfied with the process.If your going to Houston, book and stay here. I promise you won't regret it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r444353646-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444353646</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aweful </t>
+  </si>
+  <si>
+    <t>This hotel has gotten awful. I stayed here often and have been staying at the hotel since it opened about a year or two ago. At first it was perfect just like most Marriott's. Now it has serious management problems. This week and last week my TV did not work. Then last week I asked for a reservation for this week and they just did not do it. So my TV is out again tonight and I ask them if they are having problems and the lady said no. But then she added they just rebooted the system. So why did they reboot the system? Also I reported this morning that my faucet in the bathroom is completely loose from the sink. Front desk said they would fix them again nothing has been done. This is my last stay at this hotel I strongly recommend you stay somewhere else. Unresponsive poor management. There are several other hotels very close by most of them are cheaper and everything works and the management is much more responsive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>This hotel has gotten awful. I stayed here often and have been staying at the hotel since it opened about a year or two ago. At first it was perfect just like most Marriott's. Now it has serious management problems. This week and last week my TV did not work. Then last week I asked for a reservation for this week and they just did not do it. So my TV is out again tonight and I ask them if they are having problems and the lady said no. But then she added they just rebooted the system. So why did they reboot the system? Also I reported this morning that my faucet in the bathroom is completely loose from the sink. Front desk said they would fix them again nothing has been done. This is my last stay at this hotel I strongly recommend you stay somewhere else. Unresponsive poor management. There are several other hotels very close by most of them are cheaper and everything works and the management is much more responsive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r434628617-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434628617</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>great business property, close to HWs and restaurants</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 3 nights.  Wifi was excellent - logged in once on each device and was set for the duration of my stay.  Nice rooms, comfy beds, great breakfast, friendly staff.  FREE parking, in-house bar w/ HH specials, close to highways and restaurants.  I hope to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 3 nights.  Wifi was excellent - logged in once on each device and was set for the duration of my stay.  Nice rooms, comfy beds, great breakfast, friendly staff.  FREE parking, in-house bar w/ HH specials, close to highways and restaurants.  I hope to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r427908954-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427908954</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Week of business</t>
+  </si>
+  <si>
+    <t>Very clean, well kept and friendly staff.  Good location relative to the industrial business headquarters of the Westchase District.  Room was very nice with a large bathroom and walk in closet.  No complaints would recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Very clean, well kept and friendly staff.  Good location relative to the industrial business headquarters of the Westchase District.  Room was very nice with a large bathroom and walk in closet.  No complaints would recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r421265579-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421265579</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>7 Months</t>
+  </si>
+  <si>
+    <t>I spent nearly 7 months at the Springhill Suites Westchase Houston . I traveled there every week for that period The management and staff were like family to me. The most friendly/helpful staff I have ever had the pleasure of meeting.The rooms are very spacious, comfortable as well as business oriented. The layout of the rooms are excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>I spent nearly 7 months at the Springhill Suites Westchase Houston . I traveled there every week for that period The management and staff were like family to me. The most friendly/helpful staff I have ever had the pleasure of meeting.The rooms are very spacious, comfortable as well as business oriented. The layout of the rooms are excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r397344450-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397344450</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel!</t>
+  </si>
+  <si>
+    <t>I work for a Marriot property, so I travel a lot! I enjoy going to different hotels within the Marriott brand. This was my first time at a SpringHill Suites and it definitely will not be my last! The hotel was so nice and spacious! The hotel has just been open a few months and it still smells very new (lol). The staff were friendly, greeted you as you entered and exited the building. The only downside was the lack of housekeeping staff, but I do understand having a smaller and new facility that will come with time. We had to go downstairs everyday for towels and did not have our room serviced for 3 days. But that's not a minor issue, just thought everyone should know so that they're no surprises. Overall, we enjoyed our stay. It's 15 minutes from downtown so the location is perfect for me (I don't like being in the city with traffic and madness). Definitely worth a second visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>I work for a Marriot property, so I travel a lot! I enjoy going to different hotels within the Marriott brand. This was my first time at a SpringHill Suites and it definitely will not be my last! The hotel was so nice and spacious! The hotel has just been open a few months and it still smells very new (lol). The staff were friendly, greeted you as you entered and exited the building. The only downside was the lack of housekeeping staff, but I do understand having a smaller and new facility that will come with time. We had to go downstairs everyday for towels and did not have our room serviced for 3 days. But that's not a minor issue, just thought everyone should know so that they're no surprises. Overall, we enjoyed our stay. It's 15 minutes from downtown so the location is perfect for me (I don't like being in the city with traffic and madness). Definitely worth a second visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r395585756-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395585756</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Outstanding service with clean and professional enviroment</t>
+  </si>
+  <si>
+    <t>We held a retirement seminar at the hotel and the staff was very helpful. Matt was extremely helpful getting us set up and ready to do business. We used one of the conference rooms and everything was in place and ready to go when we arrived. The lobby area was bright and open.MoreShow less</t>
+  </si>
+  <si>
+    <t>We held a retirement seminar at the hotel and the staff was very helpful. Matt was extremely helpful getting us set up and ready to do business. We used one of the conference rooms and everything was in place and ready to go when we arrived. The lobby area was bright and open.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r393894619-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393894619</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>New hotel and considering its next to the busy and noisy beltway, the room was surprisingly very quiet, AC works great, nice contemporary decor, awesome bathrooms with good water flow in shower head, nice lighting, and cool sliding door entry. Comfortable bed with headboard reading lamps. And a few favorites that I love about Marriott hotels - full length mirrors &amp; sunbeam irons, and of course, free breakfast!!  Front desk attendants, Frandia &amp; Simone were very sweet &amp; professional!  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>New hotel and considering its next to the busy and noisy beltway, the room was surprisingly very quiet, AC works great, nice contemporary decor, awesome bathrooms with good water flow in shower head, nice lighting, and cool sliding door entry. Comfortable bed with headboard reading lamps. And a few favorites that I love about Marriott hotels - full length mirrors &amp; sunbeam irons, and of course, free breakfast!!  Front desk attendants, Frandia &amp; Simone were very sweet &amp; professional!  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r391904689-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391904689</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>MOLD</t>
+  </si>
+  <si>
+    <t>This hotel is very beautiful but I had mold in my cheese that I put on my eggs that I ate. I told the person at the front desk about it and he went and put out new cheese. So the next Day I was checking out and I was talking to the lady about it and she was very rude. I called to talk to the manager and never got a call back. I'm very shocked at that the behavior of the people at this Marriott... From lovefelicia@icloud.comMoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is very beautiful but I had mold in my cheese that I put on my eggs that I ate. I told the person at the front desk about it and he went and put out new cheese. So the next Day I was checking out and I was talking to the lady about it and she was very rude. I called to talk to the manager and never got a call back. I'm very shocked at that the behavior of the people at this Marriott... From lovefelicia@icloud.comMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r391869515-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391869515</t>
+  </si>
+  <si>
+    <t>Not like other springhills</t>
+  </si>
+  <si>
+    <t>I am a fan of this chain but this location is sub par. The breakfast was not as good and although the hotel is newer it had a weird odor. Now that I've left all my clothes smell bad. This wasn't a terrible stay but I definitely won't stay again. I have never had a bad stay at a spring hill before this experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>J0nCrav3n, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>I am a fan of this chain but this location is sub par. The breakfast was not as good and although the hotel is newer it had a weird odor. Now that I've left all my clothes smell bad. This wasn't a terrible stay but I definitely won't stay again. I have never had a bad stay at a spring hill before this experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r389801655-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389801655</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor customer service </t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel numerous times and loved everything about it until this weekend. I made a reservation through booking.com for 3 nights and I even called the property to make sure they had my reservation and they confirmed it. When I show up at the property, Mark the front desk agent tells me they did not have my reservation and says the only thing they have is a larger room that will cost me about $50 more than what I had intended to pay. I booked it as I had no other choice and it was late at night. I called booking.com and they confirmed the reservation was made and active, they called the hotel and Mark said he'd see what he could do about it. They just took my money and didn't even reach out afterwards, never coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>J0nCrav3n, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel numerous times and loved everything about it until this weekend. I made a reservation through booking.com for 3 nights and I even called the property to make sure they had my reservation and they confirmed it. When I show up at the property, Mark the front desk agent tells me they did not have my reservation and says the only thing they have is a larger room that will cost me about $50 more than what I had intended to pay. I booked it as I had no other choice and it was late at night. I called booking.com and they confirmed the reservation was made and active, they called the hotel and Mark said he'd see what he could do about it. They just took my money and didn't even reach out afterwards, never coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r378136520-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378136520</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, poor staff attitude</t>
+  </si>
+  <si>
+    <t>The hotel is new, so everything's clean, all amenities are in excellent shape, and the hotel is located in a very calm neighborhood; it's a very nice hotel overall. The first I stayed here the staff's attitude was decent/acceptable, however the second and last time it was so poor as well as the check in process. The check in process took 45 min and 2 of out the 3 front desk assistants were too rude and didn't show any skill to solve accommodation problems, even the managers were not present/available to help them to handle these issues. We were charged two times, and waiting to see if this problem is properly solved in time, otherwise this would complete one of our worst travel experiences.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>J0nCrav3n, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is new, so everything's clean, all amenities are in excellent shape, and the hotel is located in a very calm neighborhood; it's a very nice hotel overall. The first I stayed here the staff's attitude was decent/acceptable, however the second and last time it was so poor as well as the check in process. The check in process took 45 min and 2 of out the 3 front desk assistants were too rude and didn't show any skill to solve accommodation problems, even the managers were not present/available to help them to handle these issues. We were charged two times, and waiting to see if this problem is properly solved in time, otherwise this would complete one of our worst travel experiences.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r376783685-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376783685</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel - Great Value</t>
+  </si>
+  <si>
+    <t>Our family stayed at this Springhill Suites because of the location and the price was right.  Everything was very nicely decorated and clean.  Rooms were large and very inviting.  The kids loved the indoor pool and the lobby area to hang out in.  They have a in-house cafe that we tried a few times and the food was wonderful.  I would highly recommend this hotel if you coming to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Our family stayed at this Springhill Suites because of the location and the price was right.  Everything was very nicely decorated and clean.  Rooms were large and very inviting.  The kids loved the indoor pool and the lobby area to hang out in.  They have a in-house cafe that we tried a few times and the food was wonderful.  I would highly recommend this hotel if you coming to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r374678468-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374678468</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Security is sorely lacking. Travelers beware....not impressed.</t>
+  </si>
+  <si>
+    <t>Our car was broken into along with 10 other cars in the parking lot. While I understand that the hotel cannot be responsible for the bad actions of others...  However, my question is how do 10 cars get broken into and some of them in direct line of a camera and security not see this taking place?  Seems like they should make regular rounds through the lot, at the very least.  What was done to make up for our loss or inconvenience? NOTHING!   We will and have already taken our corporate business elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Our car was broken into along with 10 other cars in the parking lot. While I understand that the hotel cannot be responsible for the bad actions of others...  However, my question is how do 10 cars get broken into and some of them in direct line of a camera and security not see this taking place?  Seems like they should make regular rounds through the lot, at the very least.  What was done to make up for our loss or inconvenience? NOTHING!   We will and have already taken our corporate business elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r368567261-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368567261</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>New Hotel in Westchase - GREAT STAY!!</t>
+  </si>
+  <si>
+    <t>Let me start of by saying I will definitely be staying here for all my trips to Houston! The staff here is very friendly and are always willing to help you no matter the circumstance. The front desk experience of checking in was smooth and quick while also telling me about the hotels vast features. The breakfast in the morning is free and it is quite good. The rooms have a modern feel to them to make you know that this is a brand new hotel. The rooms are spacious with couches and a comfortable bed. Be sure to check out this hotel whenever you're in town as this place is amazing!MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Let me start of by saying I will definitely be staying here for all my trips to Houston! The staff here is very friendly and are always willing to help you no matter the circumstance. The front desk experience of checking in was smooth and quick while also telling me about the hotels vast features. The breakfast in the morning is free and it is quite good. The rooms have a modern feel to them to make you know that this is a brand new hotel. The rooms are spacious with couches and a comfortable bed. Be sure to check out this hotel whenever you're in town as this place is amazing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r365408245-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365408245</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Not the best staff</t>
+  </si>
+  <si>
+    <t>I'm assuming there is no manager on duty on the weekends because the hotel was ran very poorly by the staff. In the mornings, the front desk girl was never at the desk unless you hollered for her. On Sunday morning it was very busy as there seemed to be a large wedding group getting ready to leave, when I went to the desk the lady standing before me said she was very annoyed she had been waiting for assistance for over 10 minutes. Another guest was banging on all the office doors down the hallway behind the desk trying to get some help. I then went to the kitchen and had to walk in to tell the front desk girl there was a long line of guests waiting for her, she replied with "give me a minute" as she was clearly making herself something to eat. I have been in the hospitality industry for 10 years and never in my life experienced anything like it. The free breakfast looked very unappealing because the buffet was not maintained at all. There was never any hot regular coffee, bagels were hard, and food not replenished. The garbage was overflowing so all the guests left their dirty plates on the tables. This was by far the worst Springhill Suites I have ever stayed at. The overnight front desk girl on Sunday was so nasty when we asked her to open the pool...I'm assuming there is no manager on duty on the weekends because the hotel was ran very poorly by the staff. In the mornings, the front desk girl was never at the desk unless you hollered for her. On Sunday morning it was very busy as there seemed to be a large wedding group getting ready to leave, when I went to the desk the lady standing before me said she was very annoyed she had been waiting for assistance for over 10 minutes. Another guest was banging on all the office doors down the hallway behind the desk trying to get some help. I then went to the kitchen and had to walk in to tell the front desk girl there was a long line of guests waiting for her, she replied with "give me a minute" as she was clearly making herself something to eat. I have been in the hospitality industry for 10 years and never in my life experienced anything like it. The free breakfast looked very unappealing because the buffet was not maintained at all. There was never any hot regular coffee, bagels were hard, and food not replenished. The garbage was overflowing so all the guests left their dirty plates on the tables. This was by far the worst Springhill Suites I have ever stayed at. The overnight front desk girl on Sunday was so nasty when we asked her to open the pool ( it was after 10) so we could get a drink of water from the fountain since the gym had NO water after our workout. Before even listening to our reasoning for needing the pool to be open, she jumped down our throat saying NO NO NO &amp; then she told us there was no water fountain in the pool. We had to point it out to her. The only courteous employee was the gentleman on Saturday working both the front desk and bar at the same time!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>I'm assuming there is no manager on duty on the weekends because the hotel was ran very poorly by the staff. In the mornings, the front desk girl was never at the desk unless you hollered for her. On Sunday morning it was very busy as there seemed to be a large wedding group getting ready to leave, when I went to the desk the lady standing before me said she was very annoyed she had been waiting for assistance for over 10 minutes. Another guest was banging on all the office doors down the hallway behind the desk trying to get some help. I then went to the kitchen and had to walk in to tell the front desk girl there was a long line of guests waiting for her, she replied with "give me a minute" as she was clearly making herself something to eat. I have been in the hospitality industry for 10 years and never in my life experienced anything like it. The free breakfast looked very unappealing because the buffet was not maintained at all. There was never any hot regular coffee, bagels were hard, and food not replenished. The garbage was overflowing so all the guests left their dirty plates on the tables. This was by far the worst Springhill Suites I have ever stayed at. The overnight front desk girl on Sunday was so nasty when we asked her to open the pool...I'm assuming there is no manager on duty on the weekends because the hotel was ran very poorly by the staff. In the mornings, the front desk girl was never at the desk unless you hollered for her. On Sunday morning it was very busy as there seemed to be a large wedding group getting ready to leave, when I went to the desk the lady standing before me said she was very annoyed she had been waiting for assistance for over 10 minutes. Another guest was banging on all the office doors down the hallway behind the desk trying to get some help. I then went to the kitchen and had to walk in to tell the front desk girl there was a long line of guests waiting for her, she replied with "give me a minute" as she was clearly making herself something to eat. I have been in the hospitality industry for 10 years and never in my life experienced anything like it. The free breakfast looked very unappealing because the buffet was not maintained at all. There was never any hot regular coffee, bagels were hard, and food not replenished. The garbage was overflowing so all the guests left their dirty plates on the tables. This was by far the worst Springhill Suites I have ever stayed at. The overnight front desk girl on Sunday was so nasty when we asked her to open the pool ( it was after 10) so we could get a drink of water from the fountain since the gym had NO water after our workout. Before even listening to our reasoning for needing the pool to be open, she jumped down our throat saying NO NO NO &amp; then she told us there was no water fountain in the pool. We had to point it out to her. The only courteous employee was the gentleman on Saturday working both the front desk and bar at the same time!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r364186826-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364186826</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Matt Ontiveros - Great DOS!! Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>I started planning my wedding block in February and had a very hard time finding a hotel to accommodate my needs. After a long search, I saw a review on meeting planner about the New SpringHill Suites on Westchase. I sent out an email to Matt and he quickly responded, Matt has been nothing short of AMAZING!!! He was very attentive and responded to each email and each call. Matt has the true hospitality spirit...Matt actually called to check in on my hubby, daughter and I since we were driving from Atlanta Houston and we had been on the road for more than 10 Hours. (Talk about going above and beyond the call of duty)The check In process was smooth, rooms and bathrooms are very spacious, breakfast was delicious.This hotel has a wonderful and friendly staff and I would defintely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>I started planning my wedding block in February and had a very hard time finding a hotel to accommodate my needs. After a long search, I saw a review on meeting planner about the New SpringHill Suites on Westchase. I sent out an email to Matt and he quickly responded, Matt has been nothing short of AMAZING!!! He was very attentive and responded to each email and each call. Matt has the true hospitality spirit...Matt actually called to check in on my hubby, daughter and I since we were driving from Atlanta Houston and we had been on the road for more than 10 Hours. (Talk about going above and beyond the call of duty)The check In process was smooth, rooms and bathrooms are very spacious, breakfast was delicious.This hotel has a wonderful and friendly staff and I would defintely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r350802986-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350802986</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great hotel at an excellence location!!!</t>
+  </si>
+  <si>
+    <t>This is our first choice whenever we are in Houston to visit my family.  New hotel, great staff and within 5 minutes of Chinatown, easy access to the tollway.  The best part is...they are in the same parking lot with Starbucks which makes me a happy camper all around.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>This is our first choice whenever we are in Houston to visit my family.  New hotel, great staff and within 5 minutes of Chinatown, easy access to the tollway.  The best part is...they are in the same parking lot with Starbucks which makes me a happy camper all around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r340276781-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340276781</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Still has the Brand New Smell!  Service was good.</t>
+  </si>
+  <si>
+    <t>Very nice contemporary room style - comfortable and designed well.  Brand new and still has that new smell to it.  Nice looking bar area.  Breakfast was basic but good (and is included).  Not walking distance to anything but only a few minute car ride away from lots of restaurants. Good price.  Nice pool and fitness center. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Very nice contemporary room style - comfortable and designed well.  Brand new and still has that new smell to it.  Nice looking bar area.  Breakfast was basic but good (and is included).  Not walking distance to anything but only a few minute car ride away from lots of restaurants. Good price.  Nice pool and fitness center. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r338670183-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338670183</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Great Location for Westchase, super price and amenities</t>
+  </si>
+  <si>
+    <t>Rooms are a little larger than usual and perfectly organized so they seem way bigger.  Decor is clean, fresh and open like Hyatt Place.  Wifi speed is 3-5 MB/s for free connection and they offer a high speed at extra cost.  Free speed is plenty enough to check email and browse.  Superb shower head performance typical to higher end hotels that use Speakman heads.  Even with the new low water consumption regulations there is noticeable improvement.  I don't know how they do it but they're just better.   Rooms have a separate divider that has a well laid out desk, couch and coffee table.  Bathroom is spacious enough that my wife has plenty of room for her hair and makeup... she really appreciates this.  Not real high end shampoo etc but we always bring our own anyway and at this room price it's a good trade off.  There are plenty of receptacles for chargers but no USB connections.  I bring my own miniature, high output converters as I'm sure most road warriors do so this doesn't matter to me.  What I need is convenient layout of the 110 v receptacles including at bedside and this room had plenty!.  There's also a great little adjustable LED reading light on each side of the bed... very nice!  The room also has a coffee pot with supplies, a small fridge and microwave as expected at this level.
+There is also a upscale breakfast area...Rooms are a little larger than usual and perfectly organized so they seem way bigger.  Decor is clean, fresh and open like Hyatt Place.  Wifi speed is 3-5 MB/s for free connection and they offer a high speed at extra cost.  Free speed is plenty enough to check email and browse.  Superb shower head performance typical to higher end hotels that use Speakman heads.  Even with the new low water consumption regulations there is noticeable improvement.  I don't know how they do it but they're just better.   Rooms have a separate divider that has a well laid out desk, couch and coffee table.  Bathroom is spacious enough that my wife has plenty of room for her hair and makeup... she really appreciates this.  Not real high end shampoo etc but we always bring our own anyway and at this room price it's a good trade off.  There are plenty of receptacles for chargers but no USB connections.  I bring my own miniature, high output converters as I'm sure most road warriors do so this doesn't matter to me.  What I need is convenient layout of the 110 v receptacles including at bedside and this room had plenty!.  There's also a great little adjustable LED reading light on each side of the bed... very nice!  The room also has a coffee pot with supplies, a small fridge and microwave as expected at this level.There is also a upscale breakfast area that has less crowded eating space with TV news on several big screen TV's.  Also there's a bar area where you can order/eat drinks and snacks.  Great for a late arrival when you didn't have time to eat but don't want to take the time to go out to dinner and you'd rather just eat and hit the sack before early morning meetings.Service is also superb.  You're greeted on the way in and out and get the feeling that staff can and will do anything to help make your stay comfortable.  This is an indication of well-trained staff and effective management to me.Overall this hotel gets my highest rating and that's rare.  There are all kinds of little useful adders in this room,  It's not quite as lush as the Courtyard Marriott but with today's pressure on travel costs it's a superb and very workable alternative without dropping to the bottom of the barrel places.  If you have business at the engineering companies on Rogerdale Bvd this is perfect.  Jacobs is right next door and only a 3 minute walk.  Easier to walk then drive and hotel offers transportation to and from other local businesses.  Starbucks is right next door also.  Doesn't get better than that!  I liked this place so much I made my return reservation before I left!I hope you find this review helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Rooms are a little larger than usual and perfectly organized so they seem way bigger.  Decor is clean, fresh and open like Hyatt Place.  Wifi speed is 3-5 MB/s for free connection and they offer a high speed at extra cost.  Free speed is plenty enough to check email and browse.  Superb shower head performance typical to higher end hotels that use Speakman heads.  Even with the new low water consumption regulations there is noticeable improvement.  I don't know how they do it but they're just better.   Rooms have a separate divider that has a well laid out desk, couch and coffee table.  Bathroom is spacious enough that my wife has plenty of room for her hair and makeup... she really appreciates this.  Not real high end shampoo etc but we always bring our own anyway and at this room price it's a good trade off.  There are plenty of receptacles for chargers but no USB connections.  I bring my own miniature, high output converters as I'm sure most road warriors do so this doesn't matter to me.  What I need is convenient layout of the 110 v receptacles including at bedside and this room had plenty!.  There's also a great little adjustable LED reading light on each side of the bed... very nice!  The room also has a coffee pot with supplies, a small fridge and microwave as expected at this level.
+There is also a upscale breakfast area...Rooms are a little larger than usual and perfectly organized so they seem way bigger.  Decor is clean, fresh and open like Hyatt Place.  Wifi speed is 3-5 MB/s for free connection and they offer a high speed at extra cost.  Free speed is plenty enough to check email and browse.  Superb shower head performance typical to higher end hotels that use Speakman heads.  Even with the new low water consumption regulations there is noticeable improvement.  I don't know how they do it but they're just better.   Rooms have a separate divider that has a well laid out desk, couch and coffee table.  Bathroom is spacious enough that my wife has plenty of room for her hair and makeup... she really appreciates this.  Not real high end shampoo etc but we always bring our own anyway and at this room price it's a good trade off.  There are plenty of receptacles for chargers but no USB connections.  I bring my own miniature, high output converters as I'm sure most road warriors do so this doesn't matter to me.  What I need is convenient layout of the 110 v receptacles including at bedside and this room had plenty!.  There's also a great little adjustable LED reading light on each side of the bed... very nice!  The room also has a coffee pot with supplies, a small fridge and microwave as expected at this level.There is also a upscale breakfast area that has less crowded eating space with TV news on several big screen TV's.  Also there's a bar area where you can order/eat drinks and snacks.  Great for a late arrival when you didn't have time to eat but don't want to take the time to go out to dinner and you'd rather just eat and hit the sack before early morning meetings.Service is also superb.  You're greeted on the way in and out and get the feeling that staff can and will do anything to help make your stay comfortable.  This is an indication of well-trained staff and effective management to me.Overall this hotel gets my highest rating and that's rare.  There are all kinds of little useful adders in this room,  It's not quite as lush as the Courtyard Marriott but with today's pressure on travel costs it's a superb and very workable alternative without dropping to the bottom of the barrel places.  If you have business at the engineering companies on Rogerdale Bvd this is perfect.  Jacobs is right next door and only a 3 minute walk.  Easier to walk then drive and hotel offers transportation to and from other local businesses.  Starbucks is right next door also.  Doesn't get better than that!  I liked this place so much I made my return reservation before I left!I hope you find this review helpfulMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1350,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1382,2200 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>302</v>
+      </c>
+      <c r="X33" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_597.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_597.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r613946178-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8279155</t>
+  </si>
+  <si>
+    <t>613946178</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Convenient for Business</t>
+  </si>
+  <si>
+    <t>Office is a quick walk from hotel, so convenience is beneficial. Visit hotel often and have had a consistent experience - easy check-in, friendly staff, average breakfast and clean rooms. Only disadvantage is that no full-service restaurant is nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Trilby F, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Office is a quick walk from hotel, so convenience is beneficial. Visit hotel often and have had a consistent experience - easy check-in, friendly staff, average breakfast and clean rooms. Only disadvantage is that no full-service restaurant is nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r606660424-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606660424</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Good one night stay hotel</t>
+  </si>
+  <si>
+    <t>It was right across the street from where my meeting was and with Houston traffic I wanted to stay real close. The room was nice, roomy and comfortable and staff was great as well. If I have to come for another meeting here I would stay again. It is nothing fancy but did the job.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>Trilby F, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>It was right across the street from where my meeting was and with Houston traffic I wanted to stay real close. The room was nice, roomy and comfortable and staff was great as well. If I have to come for another meeting here I would stay again. It is nothing fancy but did the job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r601216058-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601216058</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>We spent last Saturday at this hotel and it completely exceeded our expectations. The hotel is new, located at a convenient location, and the room is clean, roomy, and temperature can be easily adjusted. Elevators are large which are perfect for travelers with luggage. Check in and out were fast. I didn't try the complimentary breakfast so can't comment on that. I couldn't find a safe in the room so perhaps that would be the only negative thing I would say about the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Trilby F, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2018</t>
+  </si>
+  <si>
+    <t>We spent last Saturday at this hotel and it completely exceeded our expectations. The hotel is new, located at a convenient location, and the room is clean, roomy, and temperature can be easily adjusted. Elevators are large which are perfect for travelers with luggage. Check in and out were fast. I didn't try the complimentary breakfast so can't comment on that. I couldn't find a safe in the room so perhaps that would be the only negative thing I would say about the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r577510434-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577510434</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal Rooms for business. Good location. Pleasant staff. Modern. Great parking. Clean. Excellent lighting. </t>
+  </si>
+  <si>
+    <t>Springhill suites in Westchase is an ideal place to stay for an economical business trip. The location next to Westpark Tollway and Sam Houston tollway allows easy access to Houston. The rooms are large The rooms are large and clean and allow space ample space. the breakfast buffet is adequate and the space where breakfast is served is clean and spacious. Happy hour occurs every evening and is simple but ample.. Parking is excellent and a Starbucks is nearby for a good coffee in the morning. I would highly recommend the Spring Hill suites for your next business trip to Houston. Simple. Clean. Modern. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Trilby F, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Springhill suites in Westchase is an ideal place to stay for an economical business trip. The location next to Westpark Tollway and Sam Houston tollway allows easy access to Houston. The rooms are large The rooms are large and clean and allow space ample space. the breakfast buffet is adequate and the space where breakfast is served is clean and spacious. Happy hour occurs every evening and is simple but ample.. Parking is excellent and a Starbucks is nearby for a good coffee in the morning. I would highly recommend the Spring Hill suites for your next business trip to Houston. Simple. Clean. Modern. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r568350591-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>8279155</t>
-  </si>
-  <si>
     <t>568350591</t>
   </si>
   <si>
@@ -180,12 +294,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Trilby F, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
-  </si>
-  <si>
     <t>Staying here on the last night of our vacation before flying home. The bright side:Easy, efficient check in. Room was very nice and modern. No tub, but kids are old enough for a shower now. Pillow and bed awesome! Smart tv(able to use apps) was nice. Stayed in too many hotels where these features are disengaged. Pool was nice and warm. Wish all indoor pools were this warm! The not so bright side:Bar in lobby was closed. A sign in the elevator mentioning the bar closure “this week”, but the sign looked much older than a few days. One elevator was also not working. Staff at night not all that responsive to calls. No pool towels, called desk from pool, someone brought us bath mats and mentioned that was all they could find. Use the pool the next morning too, and again had to ask for towels. Breakfast area was not that clean and food options were just ok.  Verdict: Overall nice hotel that appear to be a recent Reno. Clean, pretty good location. Might stay again if the bar and pool were better attended to.More</t>
   </si>
   <si>
@@ -228,6 +336,45 @@
     <t>What a great place to lay your head.The hotel is located in the business district.Easy to get around.Right next to Chinatown. The staff was very friendly and helpful,The rooms were large and clean. SItting area, fridge, microwave and writing desk. Two queen beds and a pull out.Can easily sleep 6. They let us check in early which was a blessing due to had to get ready for a wedding. Bring your swinwear because the pool is nice. There is a small work-out room. The a/c was great. Very very cold. how wonderfulThe beds were very comfortable.The pillow were nice, soft and a pleasure. The shower was hot and plenty of roomGive it a try.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r567248119-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567248119</t>
+  </si>
+  <si>
+    <t>Great room, bad customer service</t>
+  </si>
+  <si>
+    <t>When we arrived at 3pm we were forced to wait an additional hour to check-in due to low staffing. They provided no amenities during the time we were not checked in. The bedding is relatively new and the rooms were clean. The hotel was extremely short -staffed on our visit. Breakfast in the morning was a standard breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we arrived at 3pm we were forced to wait an additional hour to check-in due to low staffing. They provided no amenities during the time we were not checked in. The bedding is relatively new and the rooms were clean. The hotel was extremely short -staffed on our visit. Breakfast in the morning was a standard breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r558410757-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558410757</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Refreshingly Clean Hotel in Westchase.</t>
+  </si>
+  <si>
+    <t>Enjoyed my 4 day stay at this hotel. Hotel looks fairly brand new and has a refreshing and nice look. Breakfast buffet is OK.  Location is on the beltway 8 and a few minutes drive from Westheimer. Check in and out was quick. Overall - good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Enjoyed my 4 day stay at this hotel. Hotel looks fairly brand new and has a refreshing and nice look. Breakfast buffet is OK.  Location is on the beltway 8 and a few minutes drive from Westheimer. Check in and out was quick. Overall - good value for money.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r555977069-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -261,9 +408,6 @@
     <t>This is a very clean, easy to find, comfortable hotel.  Nothing fancy - what you expect from a Springhill Suites - but spacious rooms which are clean, comfortable and very quiet.  My room was extremely quiet, with plenty of room to work and plenty of room in the lobby to hang out and chat.  The hotel is quite close to everything in the Westchase area and, actually, is much preferred over the Marriott (by me at least) which was my normal haunt in the area.  I will continue to stay here if for no other reason than the polite front desk staff, the relaxed atmosphere and the clean, comfortable, quiet rooms.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This is a very clean, easy to find, comfortable hotel.  Nothing fancy - what you expect from a Springhill Suites - but spacious rooms which are clean, comfortable and very quiet.  My room was extremely quiet, with plenty of room to work and plenty of room in the lobby to hang out and chat.  The hotel is quite close to everything in the Westchase area and, actually, is much preferred over the Marriott (by me at least) which was my normal haunt in the area.  I will continue to stay here if for no other reason than the polite front desk staff, the relaxed atmosphere and the clean, comfortable, quiet rooms.More</t>
   </si>
   <si>
@@ -294,6 +438,54 @@
     <t>Big suites, bigger than avg. Clean rooms, clean grounds. Decent lil bar and nice modern breakfast area. Free n easy parking. Good location right off highway and 10 min from energy corridor area.  Rooms r very modern with all great amenities. Only thing i disliked was no newspapers available, i like to read it during my breakfast.  But i would recommend this place, overall its pretty good.  Friendly staff tooMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r523876861-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523876861</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>Stayed here while assisting in the response and recovery following Hurricane Harvey. This hotel was a little off the beaten path, but was a short drive to downtown and midtown. The staff was amazing. Very helpful and friendly. They were quick to take care of everything we needed, even in the wake of catastrophe.  Free wifi, parking, and a nice health club. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>J0nCrav3n, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while assisting in the response and recovery following Hurricane Harvey. This hotel was a little off the beaten path, but was a short drive to downtown and midtown. The staff was amazing. Very helpful and friendly. They were quick to take care of everything we needed, even in the wake of catastrophe.  Free wifi, parking, and a nice health club. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r521504037-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521504037</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>3rd time NOT the charm</t>
+  </si>
+  <si>
+    <t>3rd stay at this hotel in a year, but 3rd time was not the charm.During our stay on Saturday, Aug 5, our car window was shattered and the car was broken into. Our car was parked at a parking space in front of the hotel in a well-lit area. Ours was one of several cars broken into that night. We ended up paying $500 for new window glass.We have always gotten a post-stay survey from Marriott in all the Marriott properties we’ve stayed at, except this time. Complained to Marriott customer service. The hotel manager J. Craven’s response was mainly that the hotel is not liable. We had expected a gesture from Marriott showing that they’d like to keep us as customers such as offering something for future stay. We were disappointed.We will never stay at this Springhill Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jon C, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>3rd stay at this hotel in a year, but 3rd time was not the charm.During our stay on Saturday, Aug 5, our car window was shattered and the car was broken into. Our car was parked at a parking space in front of the hotel in a well-lit area. Ours was one of several cars broken into that night. We ended up paying $500 for new window glass.We have always gotten a post-stay survey from Marriott in all the Marriott properties we’ve stayed at, except this time. Complained to Marriott customer service. The hotel manager J. Craven’s response was mainly that the hotel is not liable. We had expected a gesture from Marriott showing that they’d like to keep us as customers such as offering something for future stay. We were disappointed.We will never stay at this Springhill Suites again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r509818229-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -366,24 +558,63 @@
     <t>I visited the Houston Westchase SpringHill Suites while visiting Houston on business. The hotel is located just off the HWY 8 beltway on the west side.  I was impressed by the friendly front desk personnel as well as the immaculate condition of my room and the breakfast area.  The Breakfast was very good and included hot options such as scrambled eggs and pork sausage.  I opted for the oatmeal and that included many options for toppings - two kinds of nuts, chocolate bits, raisin, craisins and brown sugar.  The coffee was tasty and there was ample fresh fruit and cubed pineapple and melons available. Pricing was fair for the room quality.  I was impressed with the mattresses and had a good night's sleep- not a given when I travel. I was very impressed and will use this hotel again if my travels take me back there. The free wifi did get a little overloaded in the morning, but was mostly adequate and for a small upcharge, high speed internet was available.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r473888497-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473888497</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent for comfort and price</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel brand in various other cites.  We felt very confident with our choice when we selected this site.  Our only hesitation was the modest per night pricing at around $89.  We were thinking that we might be shortchanged with amenities.  However, the hotel was up to the Springhill brand expectations.The desk clerks were very courteous and helpful with our questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel brand in various other cites.  We felt very confident with our choice when we selected this site.  Our only hesitation was the modest per night pricing at around $89.  We were thinking that we might be shortchanged with amenities.  However, the hotel was up to the Springhill brand expectations.The desk clerks were very courteous and helpful with our questions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r473624006-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473624006</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Could not have asked for a better stay!</t>
+  </si>
+  <si>
+    <t>We came from 6hours away with a group of 50 people and the hotel staff were beyond helpful. The hotel is modern and has so many amenities that it truly made our stay a great experience!It is located in a great area with many surrounding restaurants. The hotel staff gladly direct you to wherever you need to go. You don't have to worry about weather because they have an indoor pool. It also includes a gym.Lovely hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We came from 6hours away with a group of 50 people and the hotel staff were beyond helpful. The hotel is modern and has so many amenities that it truly made our stay a great experience!It is located in a great area with many surrounding restaurants. The hotel staff gladly direct you to wherever you need to go. You don't have to worry about weather because they have an indoor pool. It also includes a gym.Lovely hotel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r473610212-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
     <t>473610212</t>
   </si>
   <si>
-    <t>04/08/2017</t>
-  </si>
-  <si>
     <t>Greatest hotel experience ever!</t>
   </si>
   <si>
     <t>The facilities were superb and the staff went above and beyond to accomodate my large group. I cannot thank the staff enough: the management for checking our large group in early, to the front desk graciously guiding us in all things Houston, to the cleaning staff who kindly helped us clean around 14 young teenagers.  Everyone was so kind and truly helpful; we could not have had a better hotel experience!MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded April 19, 2017</t>
   </si>
   <si>
@@ -447,6 +678,48 @@
     <t>We have stayed here twice. The first time we stayed was better.  While the breakfast and the coffee are really nice--and the front desk staff is super friendly...the housekeeping is less than it was before.  We didn't have towels replaced on day 2; and the bed sheets were not changed in the 3 days we stayed.  Not crazy about that idea.  Looks like the bathroom was barely touched for cleaning on the 3 days we stayed.  Just the minimum was done.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r457389797-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457389797</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Bowl </t>
+  </si>
+  <si>
+    <t>We had an absolute blast with Auriel, the front desk clerk. She was friendly, helpful and best of all fun. Our room was great, we enjoyed the free breakfast buffet, and the location was convenient to everything we wanted to do. We also met the general manager, Jon Craven. He was very nice, friendly and answered our questions. All in all a great team and a great pick for our stay in Houston.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had an absolute blast with Auriel, the front desk clerk. She was friendly, helpful and best of all fun. Our room was great, we enjoyed the free breakfast buffet, and the location was convenient to everything we wanted to do. We also met the general manager, Jon Craven. He was very nice, friendly and answered our questions. All in all a great team and a great pick for our stay in Houston.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r452792837-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452792837</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>I always love my stay at this particular hotel when I'm in Houston because people like the front desk clerk ( Auriel) makes it very pleasing. The mobile check-in is a big help in expediting the process.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I always love my stay at this particular hotel when I'm in Houston because people like the front desk clerk ( Auriel) makes it very pleasing. The mobile check-in is a big help in expediting the process.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r449653578-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -465,9 +738,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>After long drive from Dallas Love field, we stayed 1 night in this hotel, we chose this because in close to Chinatown with a lot of Chinese, Vietnamese restaurant.The location is very convenient, next to Sam Houston tollway.We found the room is very modern, clean and comfortable.Breakfast was very good and a big plus with sausage, scramble egg, etc....Front desk very helpful and polite.More</t>
   </si>
   <si>
@@ -519,6 +789,51 @@
     <t>This hotel has gotten awful. I stayed here often and have been staying at the hotel since it opened about a year or two ago. At first it was perfect just like most Marriott's. Now it has serious management problems. This week and last week my TV did not work. Then last week I asked for a reservation for this week and they just did not do it. So my TV is out again tonight and I ask them if they are having problems and the lady said no. But then she added they just rebooted the system. So why did they reboot the system? Also I reported this morning that my faucet in the bathroom is completely loose from the sink. Front desk said they would fix them again nothing has been done. This is my last stay at this hotel I strongly recommend you stay somewhere else. Unresponsive poor management. There are several other hotels very close by most of them are cheaper and everything works and the management is much more responsive.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r443870871-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443870871</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Rude Night Time Customer Service</t>
+  </si>
+  <si>
+    <t>The lady (night shift Customer Service) was very rude to customer.  I was there to borrow a beer opener, she makes it sounds like I owe her a big time for borrowing that from her.  First of all, I called her, and she said I had to pick it up at the front desk.  When I went to the front desk to pick it up from her, she said I should have carried all my beer bottles to the front desk and use it right there. The beer opener shouldn't leave the front desk.  And she questioned why can't I just open it with my hand? Why did I have to use a beer opener?  Hello, if I was able to open them with my hands, I wouldn't need a beer opener.  I told her that people didn't come clean my room, and she didn't believe it, and tried to argue with me.  Although it's a new cute little hotel, but the staff made it less appealing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>The lady (night shift Customer Service) was very rude to customer.  I was there to borrow a beer opener, she makes it sounds like I owe her a big time for borrowing that from her.  First of all, I called her, and she said I had to pick it up at the front desk.  When I went to the front desk to pick it up from her, she said I should have carried all my beer bottles to the front desk and use it right there. The beer opener shouldn't leave the front desk.  And she questioned why can't I just open it with my hand? Why did I have to use a beer opener?  Hello, if I was able to open them with my hands, I wouldn't need a beer opener.  I told her that people didn't come clean my room, and she didn't believe it, and tried to argue with me.  Although it's a new cute little hotel, but the staff made it less appealing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r438307569-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438307569</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel to do business with</t>
+  </si>
+  <si>
+    <t>Matt Ontiveros Director of Sales was very nice and a pleasant person to work with. He was able to give us a great rate and was easy to get a hold of when I needed him. I have spoken to the 14 co-workers I placed there for the night and all of them said the hotel was very nice and the service was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt Ontiveros Director of Sales was very nice and a pleasant person to work with. He was able to give us a great rate and was easy to get a hold of when I needed him. I have spoken to the 14 co-workers I placed there for the night and all of them said the hotel was very nice and the service was good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r434628617-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -534,9 +849,6 @@
     <t>I stayed here for business for 3 nights.  Wifi was excellent - logged in once on each device and was set for the duration of my stay.  Nice rooms, comfy beds, great breakfast, friendly staff.  FREE parking, in-house bar w/ HH specials, close to highways and restaurants.  I hope to stay here again!MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded November 7, 2016</t>
   </si>
   <si>
@@ -594,15 +906,63 @@
     <t>I spent nearly 7 months at the Springhill Suites Westchase Houston . I traveled there every week for that period The management and staff were like family to me. The most friendly/helpful staff I have ever had the pleasure of meeting.The rooms are very spacious, comfortable as well as business oriented. The layout of the rooms are excellent.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r416867827-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416867827</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Design flaws!</t>
+  </si>
+  <si>
+    <t>So the score is actually a 7/10.We reserved a 2 queen bedroom. The room we got was a special room with disability services. This was not an issue for us but we realized there are some issues with this room:1. If you're taking a shower, you'll have a mini pool in the bathroom and toilet area! This looks and feels bad and dirty. Room service clean it everyday as they're aware of this but something more permanent should be done.2. Bathroom door is a glass type sliding door which when is closed, it is not completley covering inside! and it is exactly in front of one the beds.3. The definition of paper thin walls: You can hear your neighbors very very easily.What we enjoyed:1. Friendly staff: It seems that they really care about their guests.2. Free Breakfast is tasty. And they kept it coming till the last second. They asked guests if they're happy with service or not. Professional!3. New building: Building is new but if they do not solve the issues stated, it can go down fast.4. Internet speed is relatively good.7/10 or 3.5/5If they solve bathroom issue, it is a 4/5.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>So the score is actually a 7/10.We reserved a 2 queen bedroom. The room we got was a special room with disability services. This was not an issue for us but we realized there are some issues with this room:1. If you're taking a shower, you'll have a mini pool in the bathroom and toilet area! This looks and feels bad and dirty. Room service clean it everyday as they're aware of this but something more permanent should be done.2. Bathroom door is a glass type sliding door which when is closed, it is not completley covering inside! and it is exactly in front of one the beds.3. The definition of paper thin walls: You can hear your neighbors very very easily.What we enjoyed:1. Friendly staff: It seems that they really care about their guests.2. Free Breakfast is tasty. And they kept it coming till the last second. They asked guests if they're happy with service or not. Professional!3. New building: Building is new but if they do not solve the issues stated, it can go down fast.4. Internet speed is relatively good.7/10 or 3.5/5If they solve bathroom issue, it is a 4/5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r397616391-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397616391</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with outstanding staff</t>
+  </si>
+  <si>
+    <t>The hotel room was modern and beautifully decorated, located only 15 minutes from the Galleria Mall and downtown. The hotel staff was very and friendly and helpful. Both Simone and Frandia were exceptional when I had questions of needed help.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel room was modern and beautifully decorated, located only 15 minutes from the Galleria Mall and downtown. The hotel staff was very and friendly and helpful. Both Simone and Frandia were exceptional when I had questions of needed help.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r397344450-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
     <t>397344450</t>
   </si>
   <si>
-    <t>07/26/2016</t>
-  </si>
-  <si>
     <t>Nice Hotel!</t>
   </si>
   <si>
@@ -612,12 +972,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 28, 2016</t>
-  </si>
-  <si>
-    <t>Responded July 28, 2016</t>
-  </si>
-  <si>
     <t>I work for a Marriot property, so I travel a lot! I enjoy going to different hotels within the Marriott brand. This was my first time at a SpringHill Suites and it definitely will not be my last! The hotel was so nice and spacious! The hotel has just been open a few months and it still smells very new (lol). The staff were friendly, greeted you as you entered and exited the building. The only downside was the lack of housekeeping staff, but I do understand having a smaller and new facility that will come with time. We had to go downstairs everyday for towels and did not have our room serviced for 3 days. But that's not a minor issue, just thought everyone should know so that they're no surprises. Overall, we enjoyed our stay. It's 15 minutes from downtown so the location is perfect for me (I don't like being in the city with traffic and madness). Definitely worth a second visit.More</t>
   </si>
   <si>
@@ -663,6 +1017,54 @@
     <t>New hotel and considering its next to the busy and noisy beltway, the room was surprisingly very quiet, AC works great, nice contemporary decor, awesome bathrooms with good water flow in shower head, nice lighting, and cool sliding door entry. Comfortable bed with headboard reading lamps. And a few favorites that I love about Marriott hotels - full length mirrors &amp; sunbeam irons, and of course, free breakfast!!  Front desk attendants, Frandia &amp; Simone were very sweet &amp; professional!  Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r392761865-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392761865</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Simone was extremely helpful when I had an issue with my room late at night, deserves a BIG raise, seriously! I love the Marriott, I really do. Please, please, please keep up the excellent work. Until next time...MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Simone was extremely helpful when I had an issue with my room late at night, deserves a BIG raise, seriously! I love the Marriott, I really do. Please, please, please keep up the excellent work. Until next time...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r392004288-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392004288</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sisters Funeral </t>
+  </si>
+  <si>
+    <t>Really can't say how greatful I am to Matt Ontiveros and Springhill Suites for all the help during such a difficult time.  I needed a space for the gathering and the facility was the perfect setting. Also big thanks for the room.  Very nice and comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Really can't say how greatful I am to Matt Ontiveros and Springhill Suites for all the help during such a difficult time.  I needed a space for the gathering and the facility was the perfect setting. Also big thanks for the room.  Very nice and comfortable. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r391904689-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -723,9 +1125,6 @@
     <t>I've stayed at this hotel numerous times and loved everything about it until this weekend. I made a reservation through booking.com for 3 nights and I even called the property to make sure they had my reservation and they confirmed it. When I show up at the property, Mark the front desk agent tells me they did not have my reservation and says the only thing they have is a larger room that will cost me about $50 more than what I had intended to pay. I booked it as I had no other choice and it was late at night. I called booking.com and they confirmed the reservation was made and active, they called the hotel and Mark said he'd see what he could do about it. They just took my money and didn't even reach out afterwards, never coming back.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>J0nCrav3n, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded July 7, 2016</t>
   </si>
   <si>
@@ -735,6 +1134,57 @@
     <t>I've stayed at this hotel numerous times and loved everything about it until this weekend. I made a reservation through booking.com for 3 nights and I even called the property to make sure they had my reservation and they confirmed it. When I show up at the property, Mark the front desk agent tells me they did not have my reservation and says the only thing they have is a larger room that will cost me about $50 more than what I had intended to pay. I booked it as I had no other choice and it was late at night. I called booking.com and they confirmed the reservation was made and active, they called the hotel and Mark said he'd see what he could do about it. They just took my money and didn't even reach out afterwards, never coming back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r386778577-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386778577</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Business and pleasure!</t>
+  </si>
+  <si>
+    <t>I had accidentally booked wrong dates, yet when i showed up at the reception - the guy at the desk was very helpful and got me a nice room and also honored the corporate rate! Also, the manager Matt gave me a meeting room to work on for a few hours and this bunch at Springhill location are truly after offering a customer delight. Check this location out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>I had accidentally booked wrong dates, yet when i showed up at the reception - the guy at the desk was very helpful and got me a nice room and also honored the corporate rate! Also, the manager Matt gave me a meeting room to work on for a few hours and this bunch at Springhill location are truly after offering a customer delight. Check this location out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r383986111-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383986111</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Worst Spring Hill suites ... Beautiful hotel careless staff</t>
+  </si>
+  <si>
+    <t>I gave this hotel a shot twice and I now promise not to ever come back again!!First of all I this is the only  hotel Where I never managed to have a decent night sleep!!  Our room was on the ground floor right next to a door that was open and close with a loud banging noise continuously trough out the night (no silence device was placed on the door)!!To complete that next to our room was the housekeeping room so from around 5 in the morning my room was filled with even more banging rumours . It's a beautiful hotel as its new but definitely money where saved and the results is that it's not sound proof. The swimming pool is on the smaller side but the spa is big. Generally the swimming area was not particularly clean and the foam coming out of the spa was full of dirt :-(Breakfast was ok nothing different from other spring hill but with less choice of sweet options on the positive side although it was busy the kitchen staff was replenishing everything quickly. Staff attitude was very poor especially with the  receptionist ... We definitely felt the so called "I don't care attitude".MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>I gave this hotel a shot twice and I now promise not to ever come back again!!First of all I this is the only  hotel Where I never managed to have a decent night sleep!!  Our room was on the ground floor right next to a door that was open and close with a loud banging noise continuously trough out the night (no silence device was placed on the door)!!To complete that next to our room was the housekeeping room so from around 5 in the morning my room was filled with even more banging rumours . It's a beautiful hotel as its new but definitely money where saved and the results is that it's not sound proof. The swimming pool is on the smaller side but the spa is big. Generally the swimming area was not particularly clean and the foam coming out of the spa was full of dirt :-(Breakfast was ok nothing different from other spring hill but with less choice of sweet options on the positive side although it was busy the kitchen staff was replenishing everything quickly. Staff attitude was very poor especially with the  receptionist ... We definitely felt the so called "I don't care attitude".More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r378136520-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -750,9 +1200,6 @@
     <t>The hotel is new, so everything's clean, all amenities are in excellent shape, and the hotel is located in a very calm neighborhood; it's a very nice hotel overall. The first I stayed here the staff's attitude was decent/acceptable, however the second and last time it was so poor as well as the check in process. The check in process took 45 min and 2 of out the 3 front desk assistants were too rude and didn't show any skill to solve accommodation problems, even the managers were not present/available to help them to handle these issues. We were charged two times, and waiting to see if this problem is properly solved in time, otherwise this would complete one of our worst travel experiences.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>J0nCrav3n, General Manager at SpringHill Suites Houston Westchase, responded to this reviewResponded June 1, 2016</t>
   </si>
   <si>
@@ -807,6 +1254,57 @@
     <t>Our car was broken into along with 10 other cars in the parking lot. While I understand that the hotel cannot be responsible for the bad actions of others...  However, my question is how do 10 cars get broken into and some of them in direct line of a camera and security not see this taking place?  Seems like they should make regular rounds through the lot, at the very least.  What was done to make up for our loss or inconvenience? NOTHING!   We will and have already taken our corporate business elsewhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r373891518-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373891518</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Unexpected Surprise</t>
+  </si>
+  <si>
+    <t>This hotel was an unexpected surprise!  It was kind of off the beaten path, but close to the toll road.  We arrived rather late at night, and were pleasantly surprised at the updates of the hotel, and the bed was welcoming.  We were so tired, and couldn't have asked for a better place.  It was spacious and roomy, and I was most excited about the cost for the quality and the room size.  I would definitely return some day!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was an unexpected surprise!  It was kind of off the beaten path, but close to the toll road.  We arrived rather late at night, and were pleasantly surprised at the updates of the hotel, and the bed was welcoming.  We were so tired, and couldn't have asked for a better place.  It was spacious and roomy, and I was most excited about the cost for the quality and the room size.  I would definitely return some day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r371463030-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371463030</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Thoroughly Impressed</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!!I stayed for one week at the Springhill as I was attending a training courseThe rooms were very clean and spacious.  So comfortable with a work/kitchen/living room space then the bedroom area was separated by a partition giving the bed/sleeping area a calm zone.  The staff at the front desk were extremely helpful, thoughtful and professional.If you meet Dianna there, she is a very sweet lady who will steal your heartMirta is another wonderful lady who does the breakfast in the morning.  She spoiled me and I can't say thank you enough.Thank you Springhill Suites for making my stay in Houston relaxing and your staff for their friendlinessMoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!!I stayed for one week at the Springhill as I was attending a training courseThe rooms were very clean and spacious.  So comfortable with a work/kitchen/living room space then the bedroom area was separated by a partition giving the bed/sleeping area a calm zone.  The staff at the front desk were extremely helpful, thoughtful and professional.If you meet Dianna there, she is a very sweet lady who will steal your heartMirta is another wonderful lady who does the breakfast in the morning.  She spoiled me and I can't say thank you enough.Thank you Springhill Suites for making my stay in Houston relaxing and your staff for their friendlinessMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r368567261-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1377,57 @@
     <t>I started planning my wedding block in February and had a very hard time finding a hotel to accommodate my needs. After a long search, I saw a review on meeting planner about the New SpringHill Suites on Westchase. I sent out an email to Matt and he quickly responded, Matt has been nothing short of AMAZING!!! He was very attentive and responded to each email and each call. Matt has the true hospitality spirit...Matt actually called to check in on my hubby, daughter and I since we were driving from Atlanta Houston and we had been on the road for more than 10 Hours. (Talk about going above and beyond the call of duty)The check In process was smooth, rooms and bathrooms are very spacious, breakfast was delicious.This hotel has a wonderful and friendly staff and I would defintely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r356354810-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356354810</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Delightful event and stay</t>
+  </si>
+  <si>
+    <t>We held business meetings and stayed in the hotel over the weekend.  The hotel is new and very clean.  Staff was great - friendly and went out of their way to accommodate us.  Matt Ontiveros, their event coordinator/Director of Sales, was one of the best I have had dealings with.  As we approached our meeting date, our attendance numbers grew about 30% higher than our initial projections.  No problem - he even "borrowed" a chef from one of their full service properties to make sure our now large lunch, went off smoothly.  Rooms were typical Springhill Suites and are very well designed.  There was a large group of High School students also there this weekend - but the hotel staff had everything under control - no nighttime noise and no issues. Several of our attendees complimented me on my hotel choice.  A perfect 10 of 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>We held business meetings and stayed in the hotel over the weekend.  The hotel is new and very clean.  Staff was great - friendly and went out of their way to accommodate us.  Matt Ontiveros, their event coordinator/Director of Sales, was one of the best I have had dealings with.  As we approached our meeting date, our attendance numbers grew about 30% higher than our initial projections.  No problem - he even "borrowed" a chef from one of their full service properties to make sure our now large lunch, went off smoothly.  Rooms were typical Springhill Suites and are very well designed.  There was a large group of High School students also there this weekend - but the hotel staff had everything under control - no nighttime noise and no issues. Several of our attendees complimented me on my hotel choice.  A perfect 10 of 10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r353286904-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353286904</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not family friendly </t>
+  </si>
+  <si>
+    <t>One of my worst stay in a Marriott Hotel!! Although the hotel is brand new and spacious the walls are more like paper and you can hear every noise from the other rooms!! That's really bad especially when certain noise are going in the next rooms and you don't know how to explain it to young childrens!! Staff is not particularly friendly neither, the swimming pool is like a cold tub since it's so small and trough out my stay the towels were hardly replaced. The hotel is not tolerant towards kids which make this place a no go if you are travelling with your family!Breakfast is included and it's good.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>One of my worst stay in a Marriott Hotel!! Although the hotel is brand new and spacious the walls are more like paper and you can hear every noise from the other rooms!! That's really bad especially when certain noise are going in the next rooms and you don't know how to explain it to young childrens!! Staff is not particularly friendly neither, the swimming pool is like a cold tub since it's so small and trough out my stay the towels were hardly replaced. The hotel is not tolerant towards kids which make this place a no go if you are travelling with your family!Breakfast is included and it's good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r350802986-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -892,15 +1441,6 @@
   </si>
   <si>
     <t>This is our first choice whenever we are in Houston to visit my family.  New hotel, great staff and within 5 minutes of Chinatown, easy access to the tollway.  The best part is...they are in the same parking lot with Starbucks which makes me a happy camper all around.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded March 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 7, 2016</t>
   </si>
   <si>
     <t>This is our first choice whenever we are in Houston to visit my family.  New hotel, great staff and within 5 minutes of Chinatown, easy access to the tollway.  The best part is...they are in the same parking lot with Starbucks which makes me a happy camper all around.More</t>
@@ -957,6 +1497,33 @@
   <si>
     <t>Rooms are a little larger than usual and perfectly organized so they seem way bigger.  Decor is clean, fresh and open like Hyatt Place.  Wifi speed is 3-5 MB/s for free connection and they offer a high speed at extra cost.  Free speed is plenty enough to check email and browse.  Superb shower head performance typical to higher end hotels that use Speakman heads.  Even with the new low water consumption regulations there is noticeable improvement.  I don't know how they do it but they're just better.   Rooms have a separate divider that has a well laid out desk, couch and coffee table.  Bathroom is spacious enough that my wife has plenty of room for her hair and makeup... she really appreciates this.  Not real high end shampoo etc but we always bring our own anyway and at this room price it's a good trade off.  There are plenty of receptacles for chargers but no USB connections.  I bring my own miniature, high output converters as I'm sure most road warriors do so this doesn't matter to me.  What I need is convenient layout of the 110 v receptacles including at bedside and this room had plenty!.  There's also a great little adjustable LED reading light on each side of the bed... very nice!  The room also has a coffee pot with supplies, a small fridge and microwave as expected at this level.
 There is also a upscale breakfast area...Rooms are a little larger than usual and perfectly organized so they seem way bigger.  Decor is clean, fresh and open like Hyatt Place.  Wifi speed is 3-5 MB/s for free connection and they offer a high speed at extra cost.  Free speed is plenty enough to check email and browse.  Superb shower head performance typical to higher end hotels that use Speakman heads.  Even with the new low water consumption regulations there is noticeable improvement.  I don't know how they do it but they're just better.   Rooms have a separate divider that has a well laid out desk, couch and coffee table.  Bathroom is spacious enough that my wife has plenty of room for her hair and makeup... she really appreciates this.  Not real high end shampoo etc but we always bring our own anyway and at this room price it's a good trade off.  There are plenty of receptacles for chargers but no USB connections.  I bring my own miniature, high output converters as I'm sure most road warriors do so this doesn't matter to me.  What I need is convenient layout of the 110 v receptacles including at bedside and this room had plenty!.  There's also a great little adjustable LED reading light on each side of the bed... very nice!  The room also has a coffee pot with supplies, a small fridge and microwave as expected at this level.There is also a upscale breakfast area that has less crowded eating space with TV news on several big screen TV's.  Also there's a bar area where you can order/eat drinks and snacks.  Great for a late arrival when you didn't have time to eat but don't want to take the time to go out to dinner and you'd rather just eat and hit the sack before early morning meetings.Service is also superb.  You're greeted on the way in and out and get the feeling that staff can and will do anything to help make your stay comfortable.  This is an indication of well-trained staff and effective management to me.Overall this hotel gets my highest rating and that's rare.  There are all kinds of little useful adders in this room,  It's not quite as lush as the Courtyard Marriott but with today's pressure on travel costs it's a superb and very workable alternative without dropping to the bottom of the barrel places.  If you have business at the engineering companies on Rogerdale Bvd this is perfect.  Jacobs is right next door and only a 3 minute walk.  Easier to walk then drive and hotel offers transportation to and from other local businesses.  Starbucks is right next door also.  Doesn't get better than that!  I liked this place so much I made my return reservation before I left!I hope you find this review helpfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8279155-r331900521-SpringHill_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331900521</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Brand new SpringHill Suites!  VERY NICE!</t>
+  </si>
+  <si>
+    <t>Brand new SpringHill Suites!  VERY NICE!  This place just opened 12-4-2015.  It is really nice!  Even has a bar in the lobby area.  On the down side..... HORRIBLE WiFi speed!  A new location should have better than 1.9 Mb per sec speed!  And that's the upgraded internet service.  The Manager tells me they are in the process of making it faster, we will see.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Matt O, Director of Sales at SpringHill Suites Houston Westchase, responded to this reviewResponded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Brand new SpringHill Suites!  VERY NICE!  This place just opened 12-4-2015.  It is really nice!  Even has a bar in the lobby area.  On the down side..... HORRIBLE WiFi speed!  A new location should have better than 1.9 Mb per sec speed!  And that's the upgraded internet service.  The Manager tells me they are in the process of making it faster, we will see.More</t>
   </si>
 </sst>
 </file>
@@ -1499,12 +2066,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1552,7 +2125,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1570,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1592,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1601,47 +2174,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +2232,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1666,22 +2241,26 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1692,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1714,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1723,47 +2302,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1779,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1788,25 +2363,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1818,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +2415,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1849,49 +2424,47 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1907,7 +2480,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1916,47 +2489,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
         <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1972,7 +2547,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1981,47 +2556,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2037,7 +2612,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2046,26 +2621,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -2076,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
         <v>124</v>
@@ -2119,35 +2690,35 @@
         <v>129</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2163,58 +2734,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>136</v>
-      </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>139</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
       </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2230,58 +2795,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>145</v>
       </c>
-      <c r="K14" t="s">
+      <c r="X14" t="s">
         <v>146</v>
       </c>
-      <c r="L14" t="s">
+      <c r="Y14" t="s">
         <v>147</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>131</v>
-      </c>
-      <c r="X14" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2297,56 +2852,58 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>152</v>
       </c>
-      <c r="J15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" t="s">
-        <v>155</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2362,52 +2919,58 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
         <v>159</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>160</v>
       </c>
-      <c r="J16" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" t="s">
-        <v>163</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -2423,41 +2986,41 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
         <v>167</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>168</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>169</v>
       </c>
-      <c r="K17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>172</v>
-      </c>
       <c r="O17" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2466,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2488,34 +3051,34 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>176</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>181</v>
-      </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2531,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -2553,58 +3116,48 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
         <v>183</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>184</v>
       </c>
-      <c r="J19" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" t="s">
-        <v>187</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -2620,58 +3173,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
         <v>192</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>193</v>
       </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>197</v>
-      </c>
       <c r="O20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
@@ -2687,58 +3234,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
         <v>201</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>202</v>
-      </c>
-      <c r="J21" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" t="s">
-        <v>205</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>197</v>
-      </c>
-      <c r="O21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>198</v>
-      </c>
-      <c r="X21" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -2754,41 +3295,41 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>207</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>208</v>
-      </c>
-      <c r="J22" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" t="s">
-        <v>210</v>
-      </c>
-      <c r="L22" t="s">
-        <v>211</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>197</v>
-      </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2797,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -2819,52 +3360,58 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
         <v>215</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
         <v>216</v>
       </c>
-      <c r="J23" t="s">
-        <v>217</v>
-      </c>
-      <c r="K23" t="s">
-        <v>218</v>
-      </c>
-      <c r="L23" t="s">
-        <v>219</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>197</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -2880,34 +3427,34 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
         <v>223</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>224</v>
       </c>
-      <c r="J24" t="s">
-        <v>217</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
         <v>225</v>
-      </c>
-      <c r="L24" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>197</v>
-      </c>
-      <c r="O24" t="s">
-        <v>81</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2919,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
@@ -2941,52 +3488,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
         <v>230</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>231</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>232</v>
       </c>
-      <c r="K25" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" t="s">
-        <v>234</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>197</v>
-      </c>
       <c r="O25" t="s">
-        <v>235</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -3002,58 +3555,58 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>239</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" t="s">
-        <v>241</v>
-      </c>
-      <c r="K26" t="s">
-        <v>242</v>
-      </c>
-      <c r="L26" t="s">
-        <v>243</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>244</v>
-      </c>
       <c r="O26" t="s">
-        <v>149</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -3069,7 +3622,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3078,25 +3631,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3112,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
@@ -3134,7 +3687,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3143,47 +3696,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
@@ -3199,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3208,49 +3757,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
         <v>5</v>
       </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -3266,7 +3813,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3275,43 +3822,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="X30" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -3327,7 +3880,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3336,34 +3889,32 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3372,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
@@ -3394,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3403,29 +3954,27 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
@@ -3439,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
@@ -3461,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3470,47 +4019,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
@@ -3526,7 +4077,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3535,47 +4086,1660 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
         <v>310</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X35" t="s">
         <v>311</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y35" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>310</v>
+      </c>
+      <c r="X36" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>330</v>
+      </c>
+      <c r="X38" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" t="s">
+        <v>343</v>
+      </c>
+      <c r="K40" t="s">
+        <v>344</v>
+      </c>
+      <c r="L40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>317</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>346</v>
+      </c>
+      <c r="X40" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>350</v>
+      </c>
+      <c r="J41" t="s">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>354</v>
+      </c>
+      <c r="X41" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>361</v>
+      </c>
+      <c r="X42" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>317</v>
+      </c>
+      <c r="O43" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>369</v>
+      </c>
+      <c r="X43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>309</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>377</v>
+      </c>
+      <c r="X44" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>386</v>
+      </c>
+      <c r="X45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>394</v>
+      </c>
+      <c r="X46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>398</v>
+      </c>
+      <c r="J47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>402</v>
+      </c>
+      <c r="X47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>406</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>408</v>
+      </c>
+      <c r="L48" t="s">
+        <v>409</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>410</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>402</v>
+      </c>
+      <c r="X48" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s">
+        <v>415</v>
+      </c>
+      <c r="L49" t="s">
+        <v>416</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>418</v>
+      </c>
+      <c r="X49" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J50" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
+      </c>
+      <c r="L50" t="s">
+        <v>425</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>385</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>442</v>
+      </c>
+      <c r="X52" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J53" t="s">
+        <v>447</v>
+      </c>
+      <c r="K53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L53" t="s">
+        <v>449</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>410</v>
+      </c>
+      <c r="O53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>450</v>
+      </c>
+      <c r="X53" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J54" t="s">
+        <v>455</v>
+      </c>
+      <c r="K54" t="s">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s">
+        <v>457</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>417</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>458</v>
+      </c>
+      <c r="X54" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>461</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>462</v>
+      </c>
+      <c r="J55" t="s">
+        <v>463</v>
+      </c>
+      <c r="K55" t="s">
+        <v>464</v>
+      </c>
+      <c r="L55" t="s">
+        <v>465</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>466</v>
+      </c>
+      <c r="O55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>467</v>
+      </c>
+      <c r="X55" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>466</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>467</v>
+      </c>
+      <c r="X56" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>478</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>481</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>482</v>
+      </c>
+      <c r="X57" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>486</v>
+      </c>
+      <c r="J58" t="s">
+        <v>487</v>
+      </c>
+      <c r="K58" t="s">
+        <v>488</v>
+      </c>
+      <c r="L58" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>481</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>490</v>
+      </c>
+      <c r="X58" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64071</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>493</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>494</v>
+      </c>
+      <c r="J59" t="s">
+        <v>495</v>
+      </c>
+      <c r="K59" t="s">
+        <v>496</v>
+      </c>
+      <c r="L59" t="s">
+        <v>497</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>498</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
